--- a/tests/htdocs2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/htdocs2/px-files/sitemaps/sitemap.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
-  <si>
-    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
-  </si>
-  <si>
-    <t>「Pickles 2」 サイトマップ</t>
-  </si>
-  <si>
-    <t>Exported: 2016-01-02 18:56:11</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+  <si>
+    <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8-alpha.1%2Bnb</t>
+  </si>
+  <si>
+    <t>「htdocs2」 サイトマップ</t>
+  </si>
+  <si>
+    <t>Exported: 2017-08-13 15:33:44</t>
   </si>
   <si>
     <t>ページID</t>
@@ -68,52 +68,61 @@
     <t>カテゴリトップフラグ</t>
   </si>
   <si>
+    <t>ロール</t>
+  </si>
+  <si>
+    <t>コンテンツの処理方法</t>
+  </si>
+  <si>
     <t>削除フラグ</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>title_h1</t>
+  </si>
+  <si>
+    <t>title_label</t>
+  </si>
+  <si>
+    <t>title_breadcrumb</t>
+  </si>
+  <si>
+    <t>title_full</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>list_flg</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>orderby</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>category_top_flg</t>
+  </si>
+  <si>
     <t>role</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>title_h1</t>
-  </si>
-  <si>
-    <t>title_label</t>
-  </si>
-  <si>
-    <t>title_breadcrumb</t>
-  </si>
-  <si>
-    <t>title_full</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>list_flg</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>orderby</t>
-  </si>
-  <si>
-    <t>keywords</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category_top_flg</t>
+    <t>proc_type</t>
   </si>
   <si>
     <t>**delete_flg</t>
@@ -253,6 +262,9 @@
   </si>
   <si>
     <t>/sample_pages/page3/</t>
+  </si>
+  <si>
+    <t>broccoli</t>
   </si>
   <si>
     <t>サンプル3-1</t>
@@ -758,7 +770,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U33"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
@@ -790,7 +802,7 @@
     <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customHeight="1" ht="10">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,18 +826,19 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V1" s="1"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -879,13 +892,16 @@
       <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -893,52 +909,55 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>35</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -950,14 +969,14 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4">
         <v>1</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="9"/>
@@ -965,12 +984,13 @@
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -981,7 +1001,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4">
@@ -990,23 +1010,24 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S10" s="4">
         <v>1</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -1016,7 +1037,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4">
@@ -1029,14 +1050,15 @@
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1045,7 +1067,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4">
@@ -1058,14 +1080,15 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1074,7 +1097,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4">
@@ -1087,14 +1110,15 @@
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1103,7 +1127,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4">
@@ -1116,14 +1140,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1132,7 +1157,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4">
@@ -1145,13 +1170,14 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1161,7 +1187,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4">
@@ -1174,8 +1200,9 @@
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1186,17 +1213,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4">
@@ -1205,21 +1232,22 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1229,7 +1257,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4">
@@ -1238,21 +1266,22 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1262,7 +1291,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4">
@@ -1271,21 +1300,22 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1295,10 +1325,10 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
@@ -1306,23 +1336,24 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1332,7 +1363,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4">
@@ -1341,20 +1372,21 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1365,7 +1397,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4">
@@ -1374,23 +1406,24 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S22" s="4">
         <v>1</v>
       </c>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1400,7 +1433,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4">
@@ -1409,21 +1442,22 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1433,7 +1467,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4">
@@ -1442,22 +1476,23 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1466,10 +1501,10 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N25" s="4">
         <v>1</v>
@@ -1477,22 +1512,23 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -1501,10 +1537,10 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N26" s="4">
         <v>1</v>
@@ -1512,20 +1548,21 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1536,32 +1573,35 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4">
         <v>1</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="O27" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S27" s="4">
         <v>1</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -1571,30 +1611,33 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4">
         <v>1</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="O28" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1604,29 +1647,32 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4">
         <v>1</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="O29" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1637,27 +1683,30 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4">
         <v>1</v>
       </c>
-      <c r="O30" s="4"/>
+      <c r="O30" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
-    </row>
-    <row r="33" spans="1:21" customHeight="1" ht="5">
+      <c r="V30" s="4"/>
+    </row>
+    <row r="33" spans="1:22" customHeight="1" ht="5">
       <c r="A33" s="10" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -1679,6 +1728,7 @@
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/tests/htdocs2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/htdocs2/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/pickles2/node-pickles2-contents-editor/tests/htdocs2/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E5F17C-FFE3-AC4B-8FB1-14E0EFF29B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.8-alpha.1%2Bnb</t>
   </si>
@@ -291,53 +296,42 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Source Han Code JP EL"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -345,10 +339,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -364,19 +355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -390,13 +387,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -404,13 +402,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -418,13 +417,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -432,51 +432,41 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -766,43 +756,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="20" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="2" customWidth="true" style="0"/>
-    <col min="12" max="12" width="40" customWidth="true" style="0"/>
-    <col min="13" max="13" width="20" customWidth="true" style="0"/>
-    <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
-    <col min="18" max="18" width="30" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="18" width="30" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customHeight="1" ht="10">
+    <row r="1" spans="1:22" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +807,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -842,14 +821,14 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -900,14 +879,14 @@
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1704,7 +1683,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="33" spans="1:22" customHeight="1" ht="5">
+    <row r="33" spans="1:22" ht="5" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>89</v>
       </c>
@@ -1731,21 +1710,13 @@
       <c r="V33" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>